--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27735" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="BuffInfo" sheetId="1" r:id="rId1"/>
@@ -27,27 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>creature_type</t>
-  </si>
-  <si>
-    <t>create_magic</t>
-  </si>
-  <si>
-    <t>name_res</t>
-  </si>
-  <si>
-    <t>speed_move</t>
+    <t>icon_res</t>
   </si>
   <si>
     <t>buff_type</t>
   </si>
   <si>
-    <t>model_id</t>
+    <t>class_entity</t>
+  </si>
+  <si>
+    <t>color_body</t>
+  </si>
+  <si>
+    <t>trigger_value</t>
+  </si>
+  <si>
+    <t>trigger_value_rate</t>
+  </si>
+  <si>
+    <t>trigger_chance</t>
+  </si>
+  <si>
+    <t>trigger_num</t>
+  </si>
+  <si>
+    <t>trigger_time</t>
   </si>
   <si>
     <t>name_cn</t>
@@ -62,34 +71,43 @@
     <t>long</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
     <t>序号</t>
   </si>
   <si>
-    <t>生物类型1：防御 2进攻</t>
-  </si>
-  <si>
-    <t>创建魔力</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>移动速度</t>
-  </si>
-  <si>
-    <t>类型1：天赋 2：固定加成 3：条件触发</t>
-  </si>
-  <si>
-    <t>模组ID</t>
+    <t>图标名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">类型1:攻击模块 2：生物自带 </t>
+  </si>
+  <si>
+    <t>引用实例</t>
+  </si>
+  <si>
+    <t>身体变色</t>
+  </si>
+  <si>
+    <t>触发改变的值</t>
+  </si>
+  <si>
+    <t>触发改变的值百分比</t>
+  </si>
+  <si>
+    <t>触发几率</t>
+  </si>
+  <si>
+    <t>触发次数</t>
+  </si>
+  <si>
+    <t>触发时间</t>
   </si>
   <si>
     <t>名字-中文</t>
@@ -101,16 +119,34 @@
     <t>备注</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>拾金不昧</t>
-  </si>
-  <si>
-    <t>Honesty in returning lost items</t>
-  </si>
-  <si>
-    <t>测试数据</t>
+    <t>MoveSpeedDown</t>
+  </si>
+  <si>
+    <t>#54A8C8</t>
+  </si>
+  <si>
+    <t>减速-冰</t>
+  </si>
+  <si>
+    <t>#79FF6E</t>
+  </si>
+  <si>
+    <t>减速-粘液</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>#5863D6</t>
+  </si>
+  <si>
+    <t>中毒</t>
+  </si>
+  <si>
+    <t>烧伤</t>
   </si>
 </sst>
 </file>
@@ -1078,27 +1114,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I10" sqref="I10"/>
+      <selection pane="topRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="45.375" customWidth="1"/>
-    <col min="3" max="3" width="21.25" customWidth="1"/>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-    <col min="5" max="5" width="19.75" customWidth="1"/>
-    <col min="6" max="6" width="48.125" customWidth="1"/>
-    <col min="7" max="9" width="47.5" customWidth="1"/>
-    <col min="10" max="10" width="42.875" customWidth="1"/>
-    <col min="11" max="11" width="25.125" customWidth="1"/>
+    <col min="1" max="1" width="10.375"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="20.375" customWidth="1"/>
+    <col min="8" max="10" width="16" customWidth="1"/>
+    <col min="11" max="11" width="9.875" customWidth="1"/>
+    <col min="12" max="12" width="47.5" customWidth="1"/>
+    <col min="13" max="13" width="42.875" customWidth="1"/>
+    <col min="14" max="14" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1129,101 +1169,169 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4">
-        <v>1000001</v>
-      </c>
-      <c r="B4">
+        <v>100100001</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
       <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>100200001</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="F4">
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>100300001</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="K6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>100400001</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>100500001</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>
@@ -1247,7 +1355,7 @@
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:P88">
+  <sortState ref="A4:U88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27735" windowHeight="7350"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="BuffInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -44,6 +44,9 @@
     <t>color_body</t>
   </si>
   <si>
+    <t>pre_info</t>
+  </si>
+  <si>
     <t>trigger_value</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>身体变色</t>
   </si>
   <si>
+    <t>前置条件</t>
+  </si>
+  <si>
     <t>触发改变的值</t>
   </si>
   <si>
@@ -119,7 +125,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>MoveSpeedDown</t>
+    <t>BuffEntityForMSPDChange</t>
   </si>
   <si>
     <t>#54A8C8</t>
@@ -137,7 +143,7 @@
     <t>流血</t>
   </si>
   <si>
-    <t>Poison</t>
+    <t>BuffEntityForHPChange</t>
   </si>
   <si>
     <t>#5863D6</t>
@@ -147,6 +153,39 @@
   </si>
   <si>
     <t>烧伤</t>
+  </si>
+  <si>
+    <t>BuffEntityForEVAChange</t>
+  </si>
+  <si>
+    <t>闪避50%</t>
+  </si>
+  <si>
+    <t>BuffEntityForCRTChange</t>
+  </si>
+  <si>
+    <t>暴击50%</t>
+  </si>
+  <si>
+    <t>BuffEntityForATKChange</t>
+  </si>
+  <si>
+    <t>1001:0.5&amp;</t>
+  </si>
+  <si>
+    <t>狂暴攻击提升</t>
+  </si>
+  <si>
+    <t>血量低于50% 攻击力提升</t>
+  </si>
+  <si>
+    <t>BuffEntityForASPDChange</t>
+  </si>
+  <si>
+    <t>狂暴速度提升</t>
+  </si>
+  <si>
+    <t>血量低于50% 攻击速度提升</t>
   </si>
 </sst>
 </file>
@@ -762,8 +801,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,31 +1156,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J5" sqref="J5"/>
+      <selection pane="topRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375"/>
+    <col min="1" max="1" width="11.5"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="28.875" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="10" width="16" customWidth="1"/>
-    <col min="11" max="11" width="9.875" customWidth="1"/>
-    <col min="12" max="12" width="47.5" customWidth="1"/>
-    <col min="13" max="13" width="42.875" customWidth="1"/>
-    <col min="14" max="14" width="25.125" customWidth="1"/>
+    <col min="4" max="4" width="26" customWidth="1"/>
+    <col min="5" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="11" width="16" customWidth="1"/>
+    <col min="12" max="12" width="17.125" customWidth="1"/>
+    <col min="13" max="13" width="9.875" customWidth="1"/>
+    <col min="14" max="14" width="42.875" customWidth="1"/>
+    <col min="15" max="15" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1178,160 +1220,300 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:14">
       <c r="A4">
-        <v>100100001</v>
+        <v>1000100001</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>-0.5</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:14">
       <c r="A5">
-        <v>100200001</v>
+        <v>1000200001</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>-0.2</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14">
       <c r="A6">
-        <v>100300001</v>
+        <v>1000300001</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="K6" t="s">
-        <v>35</v>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:14">
       <c r="A7">
-        <v>100400001</v>
+        <v>1000400001</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="G7">
+        <v>-100</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:14">
       <c r="A8">
-        <v>100500001</v>
+        <v>1000500001</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
-        <v>39</v>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>2000100001</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>2000200001</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>2000300001</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12">
+        <v>2000400001</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12">
+        <v>-0.5</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>51</v>
+      </c>
+      <c r="N12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>
@@ -1355,7 +1537,7 @@
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:U88">
+  <sortState ref="A4:W88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -1161,7 +1161,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G17" sqref="G17"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -41,6 +41,9 @@
     <t>class_entity</t>
   </si>
   <si>
+    <t>class_entity_data</t>
+  </si>
+  <si>
     <t>color_body</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>引用实例</t>
   </si>
   <si>
+    <t>实例数据</t>
+  </si>
+  <si>
     <t>身体变色</t>
   </si>
   <si>
@@ -125,7 +131,10 @@
     <t>备注</t>
   </si>
   <si>
-    <t>BuffEntityForMSPDChange</t>
+    <t>BuffEntityAttribute</t>
+  </si>
+  <si>
+    <t>MSPD</t>
   </si>
   <si>
     <t>#54A8C8</t>
@@ -140,12 +149,12 @@
     <t>减速-粘液</t>
   </si>
   <si>
+    <t>BuffEntityPeriodic</t>
+  </si>
+  <si>
     <t>流血</t>
   </si>
   <si>
-    <t>BuffEntityForHPChange</t>
-  </si>
-  <si>
     <t>#5863D6</t>
   </si>
   <si>
@@ -155,19 +164,19 @@
     <t>烧伤</t>
   </si>
   <si>
-    <t>BuffEntityForEVAChange</t>
+    <t>EVA</t>
   </si>
   <si>
     <t>闪避50%</t>
   </si>
   <si>
-    <t>BuffEntityForCRTChange</t>
+    <t>CRT</t>
   </si>
   <si>
     <t>暴击50%</t>
   </si>
   <si>
-    <t>BuffEntityForATKChange</t>
+    <t>ATK</t>
   </si>
   <si>
     <t>1001:0.5&amp;</t>
@@ -179,7 +188,7 @@
     <t>血量低于50% 攻击力提升</t>
   </si>
   <si>
-    <t>BuffEntityForASPDChange</t>
+    <t>ASPD</t>
   </si>
   <si>
     <t>狂暴速度提升</t>
@@ -1156,31 +1165,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A9" sqref="A9"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.5"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="28.875" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="14.875" customWidth="1"/>
-    <col min="8" max="8" width="20.375" customWidth="1"/>
-    <col min="9" max="11" width="16" customWidth="1"/>
-    <col min="12" max="12" width="17.125" customWidth="1"/>
-    <col min="13" max="13" width="9.875" customWidth="1"/>
-    <col min="14" max="14" width="42.875" customWidth="1"/>
-    <col min="15" max="15" width="25.125" customWidth="1"/>
+    <col min="4" max="5" width="26" customWidth="1"/>
+    <col min="6" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="20.375" customWidth="1"/>
+    <col min="10" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="17.125" customWidth="1"/>
+    <col min="14" max="14" width="9.875" customWidth="1"/>
+    <col min="15" max="15" width="42.875" customWidth="1"/>
+    <col min="16" max="16" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1223,96 +1232,105 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1000100001</v>
       </c>
@@ -1320,28 +1338,31 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4">
         <v>-0.5</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>10</v>
       </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" t="s">
-        <v>34</v>
+      <c r="M4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1000200001</v>
       </c>
@@ -1349,42 +1370,48 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="H5">
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
         <v>-0.2</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" t="s">
-        <v>36</v>
+      <c r="M5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1000300001</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="N6" t="s">
-        <v>37</v>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1000400001</v>
       </c>
@@ -1392,128 +1419,155 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7">
         <v>-100</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>1</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="L7" t="s">
-        <v>40</v>
-      </c>
-      <c r="N7" t="s">
-        <v>40</v>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1000500001</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" t="s">
-        <v>41</v>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>2000100001</v>
       </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
       <c r="D9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9">
         <v>0.5</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>-1</v>
       </c>
-      <c r="L9" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
+      <c r="M9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>2000200001</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
       <c r="D10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10">
         <v>0.5</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>-1</v>
       </c>
-      <c r="L10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" t="s">
-        <v>45</v>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>2000300001</v>
       </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
       <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11">
         <v>0.5</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-1</v>
       </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N11" t="s">
-        <v>49</v>
+      <c r="M11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>2000400001</v>
       </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
       <c r="D12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12">
+      <c r="I12">
         <v>-0.5</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-1</v>
       </c>
-      <c r="L12" t="s">
-        <v>51</v>
-      </c>
-      <c r="N12" t="s">
-        <v>52</v>
+      <c r="M12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>
@@ -1537,7 +1591,7 @@
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:W88">
+  <sortState ref="A4:X88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -65,10 +65,7 @@
     <t>trigger_time</t>
   </si>
   <si>
-    <t>name_cn</t>
-  </si>
-  <si>
-    <t>name_en</t>
+    <t>name[language]</t>
   </si>
   <si>
     <t>remark</t>
@@ -92,7 +89,7 @@
     <t>图标名字</t>
   </si>
   <si>
-    <t xml:space="preserve">类型1:攻击模块 2：生物自带 </t>
+    <t>类型1:攻击模块 2：生物自带 3:全局</t>
   </si>
   <si>
     <t>引用实例</t>
@@ -122,10 +119,7 @@
     <t>触发时间</t>
   </si>
   <si>
-    <t>名字-中文</t>
-  </si>
-  <si>
-    <t>名字-英文</t>
+    <t>名字</t>
   </si>
   <si>
     <t>备注</t>
@@ -182,19 +176,16 @@
     <t>1001:0.5&amp;</t>
   </si>
   <si>
-    <t>狂暴攻击提升</t>
-  </si>
-  <si>
     <t>血量低于50% 攻击力提升</t>
   </si>
   <si>
     <t>ASPD</t>
   </si>
   <si>
-    <t>狂暴速度提升</t>
-  </si>
-  <si>
     <t>血量低于50% 攻击速度提升</t>
+  </si>
+  <si>
+    <t>钱多多-每一次击杀有10%的概率多掉落一次魔晶</t>
   </si>
 </sst>
 </file>
@@ -1165,31 +1156,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="28.875" customWidth="1"/>
+    <col min="3" max="3" width="39.5" customWidth="1"/>
     <col min="4" max="5" width="26" customWidth="1"/>
     <col min="6" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="20.375" customWidth="1"/>
     <col min="10" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="17.125" customWidth="1"/>
-    <col min="14" max="14" width="9.875" customWidth="1"/>
-    <col min="15" max="15" width="42.875" customWidth="1"/>
-    <col min="16" max="16" width="25.125" customWidth="1"/>
+    <col min="14" max="14" width="42.875" customWidth="1"/>
+    <col min="15" max="15" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1232,105 +1222,96 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>1000100001</v>
       </c>
@@ -1338,13 +1319,13 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
       </c>
       <c r="I4">
         <v>-0.5</v>
@@ -1355,14 +1336,14 @@
       <c r="L4">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" t="s">
-        <v>37</v>
+      <c r="M4">
+        <v>70000000001</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>1000200001</v>
       </c>
@@ -1370,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>-0.2</v>
@@ -1387,14 +1368,14 @@
       <c r="L5">
         <v>1</v>
       </c>
-      <c r="M5" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
+      <c r="M5">
+        <v>70000000002</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>1000300001</v>
       </c>
@@ -1402,16 +1383,16 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="M6">
+        <v>70000000003</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>1000400001</v>
       </c>
@@ -1419,10 +1400,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>40</v>
-      </c>
-      <c r="F7" t="s">
-        <v>42</v>
       </c>
       <c r="H7">
         <v>-100</v>
@@ -1436,14 +1417,14 @@
       <c r="L7">
         <v>3</v>
       </c>
-      <c r="M7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" t="s">
-        <v>43</v>
+      <c r="M7">
+        <v>70000000004</v>
+      </c>
+      <c r="N7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>1000500001</v>
       </c>
@@ -1451,16 +1432,16 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" t="s">
-        <v>44</v>
-      </c>
-      <c r="O8" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="M8">
+        <v>70000000005</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>2000100001</v>
       </c>
@@ -1468,10 +1449,10 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I9">
         <v>0.5</v>
@@ -1479,14 +1460,14 @@
       <c r="L9">
         <v>-1</v>
       </c>
-      <c r="M9" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" t="s">
-        <v>46</v>
+      <c r="M9">
+        <v>70000000006</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>2000200001</v>
       </c>
@@ -1494,10 +1475,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>0.5</v>
@@ -1505,14 +1486,14 @@
       <c r="L10">
         <v>-1</v>
       </c>
-      <c r="M10" t="s">
-        <v>48</v>
-      </c>
-      <c r="O10" t="s">
-        <v>48</v>
+      <c r="M10">
+        <v>70000000007</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>2000300001</v>
       </c>
@@ -1520,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11">
         <v>0.5</v>
@@ -1534,14 +1515,14 @@
       <c r="L11">
         <v>-1</v>
       </c>
-      <c r="M11" t="s">
-        <v>51</v>
-      </c>
-      <c r="O11" t="s">
-        <v>52</v>
+      <c r="M11">
+        <v>70000000008</v>
+      </c>
+      <c r="N11" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:14">
       <c r="A12">
         <v>2000400001</v>
       </c>
@@ -1549,13 +1530,13 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I12">
         <v>-0.5</v>
@@ -1563,11 +1544,34 @@
       <c r="L12">
         <v>-1</v>
       </c>
-      <c r="M12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" t="s">
-        <v>55</v>
+      <c r="M12">
+        <v>70000000009</v>
+      </c>
+      <c r="N12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13">
+        <v>3000100001</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13">
+        <v>0.1</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>10000000005</v>
+      </c>
+      <c r="N13" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="BuffInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -89,7 +89,7 @@
     <t>图标名字</t>
   </si>
   <si>
-    <t>类型1:攻击模块 2：生物自带 3:全局</t>
+    <t>类型1:攻击模块 2：生物自带 3:深渊馈赠</t>
   </si>
   <si>
     <t>引用实例</t>
@@ -185,7 +185,16 @@
     <t>血量低于50% 攻击速度提升</t>
   </si>
   <si>
+    <t>增殖-随机复制一个已有的魔物</t>
+  </si>
+  <si>
     <t>钱多多-每一次击杀有10%的概率多掉落一次魔晶</t>
+  </si>
+  <si>
+    <t>强征健体-所有魔物体力增加10%</t>
+  </si>
+  <si>
+    <t>时光沙漏-所有魔物放置CD减少10%</t>
   </si>
 </sst>
 </file>
@@ -1159,16 +1168,16 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="22.75" customWidth="1"/>
     <col min="4" max="5" width="26" customWidth="1"/>
     <col min="6" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
@@ -1561,17 +1570,74 @@
       <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="J13">
-        <v>0.1</v>
-      </c>
       <c r="L13">
         <v>-1</v>
       </c>
       <c r="M13">
-        <v>10000000005</v>
+        <v>10000000001</v>
       </c>
       <c r="N13" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14">
+        <v>3000200001</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>10000000005</v>
+      </c>
+      <c r="N14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>3000300001</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="L15">
+        <v>-1</v>
+      </c>
+      <c r="M15">
+        <v>10000000007</v>
+      </c>
+      <c r="N15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16">
+        <v>3000400001</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>0.1</v>
+      </c>
+      <c r="L16">
+        <v>-1</v>
+      </c>
+      <c r="M16">
+        <v>10000000003</v>
+      </c>
+      <c r="N16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>id</t>
   </si>
@@ -185,13 +185,22 @@
     <t>血量低于50% 攻击速度提升</t>
   </si>
   <si>
+    <t>BuffEntityInstant</t>
+  </si>
+  <si>
     <t>增殖-随机复制一个已有的魔物</t>
   </si>
   <si>
+    <t>BuffEntityPersistent</t>
+  </si>
+  <si>
     <t>钱多多-每一次击杀有10%的概率多掉落一次魔晶</t>
   </si>
   <si>
     <t>强征健体-所有魔物体力增加10%</t>
+  </si>
+  <si>
+    <t>CD</t>
   </si>
   <si>
     <t>时光沙漏-所有魔物放置CD减少10%</t>
@@ -1168,16 +1177,16 @@
   <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M18" sqref="M18"/>
+      <selection pane="topRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
     <col min="4" max="5" width="26" customWidth="1"/>
     <col min="6" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
@@ -1568,7 +1577,7 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="L13">
         <v>-1</v>
@@ -1577,7 +1586,7 @@
         <v>10000000001</v>
       </c>
       <c r="N13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1587,6 +1596,9 @@
       <c r="C14">
         <v>3</v>
       </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
       <c r="J14">
         <v>0.1</v>
       </c>
@@ -1597,7 +1609,7 @@
         <v>10000000005</v>
       </c>
       <c r="N14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1607,6 +1619,9 @@
       <c r="C15">
         <v>3</v>
       </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
       <c r="J15">
         <v>0.1</v>
       </c>
@@ -1617,7 +1632,7 @@
         <v>10000000007</v>
       </c>
       <c r="N15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1627,6 +1642,12 @@
       <c r="C16">
         <v>3</v>
       </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
       <c r="J16">
         <v>0.1</v>
       </c>
@@ -1637,7 +1658,7 @@
         <v>10000000003</v>
       </c>
       <c r="N16" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="BuffInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -185,13 +185,16 @@
     <t>血量低于50% 攻击速度提升</t>
   </si>
   <si>
-    <t>BuffEntityInstant</t>
+    <t>BuffEntityInstantCloneDefenseCreature</t>
   </si>
   <si>
     <t>增殖-随机复制一个已有的魔物</t>
   </si>
   <si>
-    <t>BuffEntityPersistent</t>
+    <t>BuffEntityConditionalAddCrystal</t>
+  </si>
+  <si>
+    <t>GameFightLogic_CreatureDeadDropCrystal</t>
   </si>
   <si>
     <t>钱多多-每一次击杀有10%的概率多掉落一次魔晶</t>
@@ -1179,7 +1182,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G12" sqref="G12"/>
+      <selection pane="topRight" activeCell="A13" sqref="A13:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1187,7 +1190,8 @@
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="5" width="26" customWidth="1"/>
+    <col min="4" max="4" width="41.5" customWidth="1"/>
+    <col min="5" max="5" width="42.625" customWidth="1"/>
     <col min="6" max="7" width="11.5" customWidth="1"/>
     <col min="8" max="8" width="14.875" customWidth="1"/>
     <col min="9" max="9" width="20.375" customWidth="1"/>
@@ -1599,6 +1603,9 @@
       <c r="D14" t="s">
         <v>54</v>
       </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
       <c r="J14">
         <v>0.1</v>
       </c>
@@ -1609,7 +1616,7 @@
         <v>10000000005</v>
       </c>
       <c r="N14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1632,7 +1639,7 @@
         <v>10000000007</v>
       </c>
       <c r="N15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1646,7 +1653,7 @@
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J16">
         <v>0.1</v>
@@ -1658,7 +1665,7 @@
         <v>10000000003</v>
       </c>
       <c r="N16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>buff_type</t>
   </si>
   <si>
+    <t>trigger_creature_type</t>
+  </si>
+  <si>
     <t>class_entity</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>类型1:攻击模块 2：生物自带 3:深渊馈赠</t>
   </si>
   <si>
+    <t>buff触发对象类型0所有 1防御 2进攻 99防守核心</t>
+  </si>
+  <si>
     <t>引用实例</t>
   </si>
   <si>
@@ -200,10 +206,13 @@
     <t>钱多多-每一次击杀有10%的概率多掉落一次魔晶</t>
   </si>
   <si>
+    <t>HP</t>
+  </si>
+  <si>
     <t>强征健体-所有魔物体力增加10%</t>
   </si>
   <si>
-    <t>CD</t>
+    <t>RCD</t>
   </si>
   <si>
     <t>时光沙漏-所有魔物放置CD减少10%</t>
@@ -1177,31 +1186,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A13" sqref="A13:A16"/>
+      <selection pane="topRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="41.5" customWidth="1"/>
-    <col min="5" max="5" width="42.625" customWidth="1"/>
-    <col min="6" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="17.125" customWidth="1"/>
-    <col min="14" max="14" width="42.875" customWidth="1"/>
-    <col min="15" max="15" width="25.125" customWidth="1"/>
+    <col min="3" max="4" width="36.5" customWidth="1"/>
+    <col min="5" max="5" width="41.5" customWidth="1"/>
+    <col min="6" max="6" width="42.625" customWidth="1"/>
+    <col min="7" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="15" max="15" width="42.875" customWidth="1"/>
+    <col min="16" max="16" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1244,428 +1253,437 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" t="s">
         <v>17</v>
       </c>
       <c r="M2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>15</v>
       </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1000100001</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
         <v>-0.5</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4">
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>70000000001</v>
       </c>
-      <c r="N4" t="s">
-        <v>35</v>
+      <c r="O4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1000200001</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
         <v>-0.2</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
+      <c r="N5">
         <v>70000000002</v>
       </c>
-      <c r="N5" t="s">
-        <v>37</v>
+      <c r="O5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1000300001</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M6">
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6">
         <v>70000000003</v>
       </c>
-      <c r="N6" t="s">
-        <v>39</v>
+      <c r="O6" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1000400001</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="H7">
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7">
         <v>-100</v>
       </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
+      <c r="L7">
         <v>5</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>3</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>70000000004</v>
       </c>
-      <c r="N7" t="s">
-        <v>41</v>
+      <c r="O7" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1000500001</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="M8">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8">
         <v>70000000005</v>
       </c>
-      <c r="N8" t="s">
-        <v>42</v>
+      <c r="O8" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>2000100001</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
       <c r="E9" t="s">
-        <v>43</v>
-      </c>
-      <c r="I9">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9">
         <v>0.5</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-1</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>70000000006</v>
       </c>
-      <c r="N9" t="s">
-        <v>44</v>
+      <c r="O9" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>2000200001</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
       <c r="E10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
         <v>0.5</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>-1</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>70000000007</v>
       </c>
-      <c r="N10" t="s">
-        <v>46</v>
+      <c r="O10" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>2000300001</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
       <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11">
         <v>0.5</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-1</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>70000000008</v>
       </c>
-      <c r="N11" t="s">
-        <v>49</v>
+      <c r="O11" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>2000400001</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
       <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12">
+      <c r="J12">
         <v>-0.5</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-1</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>70000000009</v>
       </c>
-      <c r="N12" t="s">
-        <v>51</v>
+      <c r="O12" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>3000100001</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13">
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13">
         <v>-1</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>10000000001</v>
       </c>
-      <c r="N13" t="s">
-        <v>53</v>
+      <c r="O13" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>3000200001</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
+      <c r="D14"/>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14">
         <v>0.1</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-1</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>10000000005</v>
       </c>
-      <c r="N14" t="s">
-        <v>56</v>
+      <c r="O14" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>3000300001</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>59</v>
       </c>
       <c r="J15">
         <v>0.1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-1</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>10000000007</v>
       </c>
-      <c r="N15" t="s">
-        <v>57</v>
+      <c r="O15" t="s">
+        <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>3000400001</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
+      <c r="D16"/>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
-      </c>
-      <c r="L16">
+        <v>-0.1</v>
+      </c>
+      <c r="M16">
         <v>-1</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>10000000003</v>
       </c>
-      <c r="N16" t="s">
-        <v>59</v>
+      <c r="O16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>
@@ -1689,7 +1707,7 @@
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:X88">
+  <sortState ref="A4:Y88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="BuffInfo" sheetId="1" r:id="rId1"/>
@@ -1189,9 +1189,9 @@
   <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E28" sqref="E28"/>
+      <selection pane="topRight" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1207,7 +1207,6 @@
     <col min="11" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="17.125" customWidth="1"/>
     <col min="15" max="15" width="42.875" customWidth="1"/>
-    <col min="16" max="16" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1374,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="N4">
-        <v>70000000001</v>
+        <v>1</v>
       </c>
       <c r="O4" t="s">
         <v>37</v>
@@ -1403,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="N5">
-        <v>70000000002</v>
+        <v>2</v>
       </c>
       <c r="O5" t="s">
         <v>39</v>
@@ -1420,7 +1419,7 @@
         <v>40</v>
       </c>
       <c r="N6">
-        <v>70000000003</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
         <v>41</v>
@@ -1449,7 +1448,7 @@
         <v>3</v>
       </c>
       <c r="N7">
-        <v>70000000004</v>
+        <v>4</v>
       </c>
       <c r="O7" t="s">
         <v>43</v>
@@ -1466,7 +1465,7 @@
         <v>40</v>
       </c>
       <c r="N8">
-        <v>70000000005</v>
+        <v>5</v>
       </c>
       <c r="O8" t="s">
         <v>44</v>
@@ -1492,7 +1491,7 @@
         <v>-1</v>
       </c>
       <c r="N9">
-        <v>70000000006</v>
+        <v>6</v>
       </c>
       <c r="O9" t="s">
         <v>46</v>
@@ -1518,7 +1517,7 @@
         <v>-1</v>
       </c>
       <c r="N10">
-        <v>70000000007</v>
+        <v>7</v>
       </c>
       <c r="O10" t="s">
         <v>48</v>
@@ -1547,7 +1546,7 @@
         <v>-1</v>
       </c>
       <c r="N11">
-        <v>70000000008</v>
+        <v>8</v>
       </c>
       <c r="O11" t="s">
         <v>51</v>
@@ -1576,7 +1575,7 @@
         <v>-1</v>
       </c>
       <c r="N12">
-        <v>70000000009</v>
+        <v>9</v>
       </c>
       <c r="O12" t="s">
         <v>53</v>
@@ -1589,7 +1588,6 @@
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13"/>
       <c r="E13" t="s">
         <v>54</v>
       </c>
@@ -1597,7 +1595,7 @@
         <v>-1</v>
       </c>
       <c r="N13">
-        <v>10000000001</v>
+        <v>10</v>
       </c>
       <c r="O13" t="s">
         <v>55</v>
@@ -1610,7 +1608,6 @@
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="D14"/>
       <c r="E14" t="s">
         <v>56</v>
       </c>
@@ -1624,7 +1621,7 @@
         <v>-1</v>
       </c>
       <c r="N14">
-        <v>10000000005</v>
+        <v>11</v>
       </c>
       <c r="O14" t="s">
         <v>58</v>
@@ -1653,7 +1650,7 @@
         <v>-1</v>
       </c>
       <c r="N15">
-        <v>10000000007</v>
+        <v>12</v>
       </c>
       <c r="O15" t="s">
         <v>60</v>
@@ -1666,7 +1663,6 @@
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="D16"/>
       <c r="E16" t="s">
         <v>34</v>
       </c>
@@ -1680,7 +1676,7 @@
         <v>-1</v>
       </c>
       <c r="N16">
-        <v>10000000003</v>
+        <v>13</v>
       </c>
       <c r="O16" t="s">
         <v>62</v>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>id</t>
   </si>
@@ -56,12 +56,21 @@
     <t>trigger_value</t>
   </si>
   <si>
+    <t>trigger_value_min</t>
+  </si>
+  <si>
     <t>trigger_value_rate</t>
   </si>
   <si>
+    <t>trigger_value_rate_min</t>
+  </si>
+  <si>
     <t>trigger_chance</t>
   </si>
   <si>
+    <t>trigger_chance_min</t>
+  </si>
+  <si>
     <t>trigger_num</t>
   </si>
   <si>
@@ -92,7 +101,7 @@
     <t>图标名字</t>
   </si>
   <si>
-    <t>类型1:攻击模块 2：生物自带 3:深渊馈赠</t>
+    <t>类型1:攻击模块 2：生物自带 3:深渊馈赠 11 12 13:生物稀有度BUFF</t>
   </si>
   <si>
     <t>buff触发对象类型0所有 1防御 2进攻 99防守核心</t>
@@ -113,12 +122,21 @@
     <t>触发改变的值</t>
   </si>
   <si>
+    <t>触发改变的值(最小值)</t>
+  </si>
+  <si>
     <t>触发改变的值百分比</t>
   </si>
   <si>
+    <t>触发改变的值百分比(最小值)</t>
+  </si>
+  <si>
     <t>触发几率</t>
   </si>
   <si>
+    <t>触发几率(最小值)</t>
+  </si>
+  <si>
     <t>触发次数</t>
   </si>
   <si>
@@ -149,7 +167,7 @@
     <t>减速-粘液</t>
   </si>
   <si>
-    <t>BuffEntityPeriodic</t>
+    <t>BuffEntityPeriodicHPChange</t>
   </si>
   <si>
     <t>流血</t>
@@ -216,6 +234,24 @@
   </si>
   <si>
     <t>时光沙漏-所有魔物放置CD减少10%</t>
+  </si>
+  <si>
+    <t>加生命百分比</t>
+  </si>
+  <si>
+    <t>DR</t>
+  </si>
+  <si>
+    <t>加护甲百分比</t>
+  </si>
+  <si>
+    <t>加攻击力百分比</t>
+  </si>
+  <si>
+    <t>每隔多少秒恢复一次</t>
+  </si>
+  <si>
+    <t>每隔多少秒再攻击一次</t>
   </si>
 </sst>
 </file>
@@ -228,13 +264,26 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -701,139 +750,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1186,30 +1241,35 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N17" sqref="N17"/>
+      <selection pane="topRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="4" width="36.5" customWidth="1"/>
+    <col min="3" max="3" width="67.625" customWidth="1"/>
+    <col min="4" max="4" width="51.875" customWidth="1"/>
     <col min="5" max="5" width="41.5" customWidth="1"/>
     <col min="6" max="6" width="42.625" customWidth="1"/>
     <col min="7" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="20.375" customWidth="1"/>
-    <col min="11" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="17.125" customWidth="1"/>
-    <col min="15" max="15" width="42.875" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
+    <col min="11" max="11" width="20.375" customWidth="1"/>
+    <col min="12" max="12" width="24.875" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="21.375" customWidth="1"/>
+    <col min="15" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="17.125" customWidth="1"/>
+    <col min="18" max="18" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1237,120 +1297,147 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="R2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>1000100001</v>
       </c>
@@ -1358,28 +1445,28 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4">
+        <v>42</v>
+      </c>
+      <c r="K4">
         <v>-0.5</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>10</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="R4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1000200001</v>
       </c>
@@ -1387,91 +1474,91 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5">
+        <v>44</v>
+      </c>
+      <c r="K5">
         <v>-0.2</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>1</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>2</v>
       </c>
-      <c r="O5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="R5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:18">
       <c r="A6">
         <v>1000300001</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="N6">
+      <c r="E6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6">
         <v>3</v>
       </c>
-      <c r="O6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="R6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:18">
       <c r="A7">
         <v>1000400001</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>40</v>
+      <c r="E7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I7">
         <v>-100</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>5</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>3</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>4</v>
       </c>
-      <c r="O7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="R7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:18">
       <c r="A8">
         <v>1000500001</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8">
+      <c r="E8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8">
         <v>5</v>
       </c>
-      <c r="O8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>2000100001</v>
       </c>
@@ -1479,25 +1566,22 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9">
+        <v>51</v>
+      </c>
+      <c r="K9">
         <v>0.5</v>
       </c>
-      <c r="M9">
-        <v>-1</v>
-      </c>
-      <c r="N9">
+      <c r="Q9">
         <v>6</v>
       </c>
-      <c r="O9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>2000200001</v>
       </c>
@@ -1505,25 +1589,22 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J10">
+        <v>53</v>
+      </c>
+      <c r="K10">
         <v>0.5</v>
       </c>
-      <c r="M10">
-        <v>-1</v>
-      </c>
-      <c r="N10">
+      <c r="Q10">
         <v>7</v>
       </c>
-      <c r="O10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>2000300001</v>
       </c>
@@ -1531,28 +1612,25 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11">
+        <v>55</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
         <v>0.5</v>
       </c>
-      <c r="M11">
-        <v>-1</v>
-      </c>
-      <c r="N11">
+      <c r="Q11">
         <v>8</v>
       </c>
-      <c r="O11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="R11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>2000400001</v>
       </c>
@@ -1560,28 +1638,25 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12">
+        <v>58</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
         <v>-0.5</v>
       </c>
-      <c r="M12">
-        <v>-1</v>
-      </c>
-      <c r="N12">
+      <c r="Q12">
         <v>9</v>
       </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="R12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>3000100001</v>
       </c>
@@ -1589,19 +1664,16 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13">
-        <v>-1</v>
-      </c>
-      <c r="N13">
+        <v>60</v>
+      </c>
+      <c r="Q13">
         <v>10</v>
       </c>
-      <c r="O13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="R13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>3000200001</v>
       </c>
@@ -1609,25 +1681,22 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14">
+        <v>63</v>
+      </c>
+      <c r="M14">
         <v>0.1</v>
       </c>
-      <c r="M14">
-        <v>-1</v>
-      </c>
-      <c r="N14">
+      <c r="Q14">
         <v>11</v>
       </c>
-      <c r="O14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="R14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>3000300001</v>
       </c>
@@ -1638,25 +1707,22 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15">
+        <v>65</v>
+      </c>
+      <c r="K15">
         <v>0.1</v>
       </c>
-      <c r="M15">
-        <v>-1</v>
-      </c>
-      <c r="N15">
+      <c r="Q15">
         <v>12</v>
       </c>
-      <c r="O15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="R15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>3000400001</v>
       </c>
@@ -1664,22 +1730,157 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
-      </c>
-      <c r="J16">
+        <v>67</v>
+      </c>
+      <c r="K16">
         <v>-0.1</v>
       </c>
-      <c r="M16">
-        <v>-1</v>
-      </c>
-      <c r="N16">
+      <c r="Q16">
         <v>13</v>
       </c>
-      <c r="O16" t="s">
-        <v>62</v>
+      <c r="R16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>11000100001</v>
+      </c>
+      <c r="C17">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17">
+        <v>0.2</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+      <c r="R17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>11000200001</v>
+      </c>
+      <c r="C18">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K18">
+        <v>0.2</v>
+      </c>
+      <c r="L18">
+        <v>0.1</v>
+      </c>
+      <c r="R18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>11000300001</v>
+      </c>
+      <c r="C19">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19">
+        <v>0.2</v>
+      </c>
+      <c r="L19">
+        <v>0.1</v>
+      </c>
+      <c r="R19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" ht="13" customHeight="1" spans="1:18">
+      <c r="A20">
+        <v>12000100001</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20">
+        <v>0.05</v>
+      </c>
+      <c r="L20">
+        <v>0.01</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>12000200001</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="P21">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>12000300001</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>13000100001</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>13000200001</v>
+      </c>
+      <c r="C24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>13000300001</v>
+      </c>
+      <c r="C25">
+        <v>13</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>
@@ -1703,7 +1904,7 @@
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:Y88">
+  <sortState ref="A4:AB88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>buff_type</t>
   </si>
   <si>
+    <t>rarity</t>
+  </si>
+  <si>
     <t>trigger_creature_type</t>
   </si>
   <si>
@@ -77,9 +80,15 @@
     <t>trigger_time</t>
   </si>
   <si>
+    <t>trigger_effect</t>
+  </si>
+  <si>
     <t>name[language]</t>
   </si>
   <si>
+    <t>content[language]</t>
+  </si>
+  <si>
     <t>remark</t>
   </si>
   <si>
@@ -104,6 +113,9 @@
     <t>类型1:攻击模块 2：生物自带 3:深渊馈赠 11 12 13:生物稀有度BUFF</t>
   </si>
   <si>
+    <t>稀有度</t>
+  </si>
+  <si>
     <t>buff触发对象类型0所有 1防御 2进攻 99防守核心</t>
   </si>
   <si>
@@ -143,9 +155,15 @@
     <t>触发时间</t>
   </si>
   <si>
+    <t>触发时的粒子</t>
+  </si>
+  <si>
     <t>名字</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -248,23 +266,54 @@
     <t>加攻击力百分比</t>
   </si>
   <si>
-    <t>每隔多少秒恢复一次</t>
+    <t>每隔多少秒恢复HP一次</t>
+  </si>
+  <si>
+    <t>BuffEntityPeriodicDRChange</t>
+  </si>
+  <si>
+    <t>每隔多少秒恢复DR一次</t>
+  </si>
+  <si>
+    <t>BuffEntityPeriodicAttackAgain</t>
   </si>
   <si>
     <t>每隔多少秒再攻击一次</t>
+  </si>
+  <si>
+    <t>主动拾取附近魔晶</t>
+  </si>
+  <si>
+    <t>拾取的魔晶加倍</t>
+  </si>
+  <si>
+    <t>GameFightLogic_CreatureDeadEnd</t>
+  </si>
+  <si>
+    <t>死亡后重生</t>
+  </si>
+  <si>
+    <t>死亡后爆炸</t>
+  </si>
+  <si>
+    <t>死亡后给友军加血</t>
+  </si>
+  <si>
+    <t>死亡后生成魔晶</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +331,12 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -750,141 +805,144 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -892,6 +950,9 @@
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1241,35 +1302,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R80"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O24" sqref="O24"/>
+      <selection pane="topRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="24.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="67.625" customWidth="1"/>
-    <col min="4" max="4" width="51.875" customWidth="1"/>
-    <col min="5" max="5" width="41.5" customWidth="1"/>
-    <col min="6" max="6" width="42.625" customWidth="1"/>
-    <col min="7" max="8" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="19.375" customWidth="1"/>
-    <col min="11" max="11" width="20.375" customWidth="1"/>
-    <col min="12" max="12" width="24.875" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="21.375" customWidth="1"/>
-    <col min="15" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="17.125" customWidth="1"/>
-    <col min="18" max="18" width="42.875" customWidth="1"/>
+    <col min="3" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="51.875" customWidth="1"/>
+    <col min="6" max="6" width="41.5" customWidth="1"/>
+    <col min="7" max="7" width="42.625" customWidth="1"/>
+    <col min="8" max="9" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="14.875" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="12" max="12" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="24.875" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="21.375" customWidth="1"/>
+    <col min="16" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="17.125" customWidth="1"/>
+    <col min="20" max="20" width="28.625" customWidth="1"/>
+    <col min="21" max="21" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1297,22 +1359,22 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" t="s">
@@ -1324,379 +1386,472 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="S2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
+      <c r="T2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="U2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>1000100001</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>40</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4">
         <v>-0.5</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>10</v>
       </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="S4">
+        <v>1000100001</v>
+      </c>
+      <c r="T4" s="2">
+        <v>10001000010000</v>
+      </c>
+      <c r="U4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>1000200001</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>40</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5">
+        <v>47</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5">
         <v>-0.2</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>1</v>
       </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-      <c r="R5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:18">
+      <c r="S5">
+        <v>1000200001</v>
+      </c>
+      <c r="T5" s="2">
+        <v>10002000010000</v>
+      </c>
+      <c r="U5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:21">
       <c r="A6">
         <v>1000300001</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q6">
-        <v>3</v>
-      </c>
-      <c r="R6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:18">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6">
+        <v>1000300001</v>
+      </c>
+      <c r="T6" s="2">
+        <v>10003000010000</v>
+      </c>
+      <c r="U6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:21">
       <c r="A7">
         <v>1000400001</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7">
         <v>-100</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>5</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>3</v>
       </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-      <c r="R7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:18">
+      <c r="S7">
+        <v>1000400001</v>
+      </c>
+      <c r="T7" s="2">
+        <v>10004000010000</v>
+      </c>
+      <c r="U7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:21">
       <c r="A8">
         <v>1000500001</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-      <c r="R8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8">
+        <v>1000500001</v>
+      </c>
+      <c r="T8" s="2">
+        <v>10005000010000</v>
+      </c>
+      <c r="U8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>2000100001</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>40</v>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9">
         <v>0.5</v>
       </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-      <c r="R9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+      <c r="S9">
+        <v>2000100001</v>
+      </c>
+      <c r="T9" s="2">
+        <v>20001000010000</v>
+      </c>
+      <c r="U9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>2000200001</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="E10" t="s">
-        <v>40</v>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10">
+        <v>46</v>
+      </c>
+      <c r="G10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10">
         <v>0.5</v>
       </c>
-      <c r="Q10">
-        <v>7</v>
-      </c>
-      <c r="R10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+      <c r="S10">
+        <v>2000200001</v>
+      </c>
+      <c r="T10" s="2">
+        <v>20002000010000</v>
+      </c>
+      <c r="U10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>2000300001</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>40</v>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11">
         <v>0.5</v>
       </c>
-      <c r="Q11">
-        <v>8</v>
-      </c>
-      <c r="R11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+      <c r="S11">
+        <v>2000300001</v>
+      </c>
+      <c r="T11" s="2">
+        <v>20003000010000</v>
+      </c>
+      <c r="U11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>2000400001</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
-      <c r="E12" t="s">
-        <v>40</v>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12">
         <v>-0.5</v>
       </c>
-      <c r="Q12">
-        <v>9</v>
-      </c>
-      <c r="R12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="S12">
+        <v>2000400001</v>
+      </c>
+      <c r="T12" s="2">
+        <v>20004000010000</v>
+      </c>
+      <c r="U12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>3000100001</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-      <c r="R13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="S13">
+        <v>3000100001</v>
+      </c>
+      <c r="T13" s="2">
+        <v>30001000010000</v>
+      </c>
+      <c r="U13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>3000200001</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="E14" t="s">
-        <v>62</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14">
+        <v>68</v>
+      </c>
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14">
         <v>0.1</v>
       </c>
-      <c r="Q14">
-        <v>11</v>
-      </c>
-      <c r="R14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+      <c r="S14">
+        <v>3000200001</v>
+      </c>
+      <c r="T14" s="2">
+        <v>30002000010000</v>
+      </c>
+      <c r="U14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>3000300001</v>
       </c>
@@ -1706,181 +1861,374 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>40</v>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15">
         <v>0.1</v>
       </c>
-      <c r="Q15">
-        <v>12</v>
-      </c>
-      <c r="R15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+      <c r="S15">
+        <v>3000300001</v>
+      </c>
+      <c r="T15" s="2">
+        <v>30003000010000</v>
+      </c>
+      <c r="U15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>3000400001</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
-        <v>40</v>
+      <c r="D16">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16">
         <v>-0.1</v>
       </c>
-      <c r="Q16">
-        <v>13</v>
-      </c>
-      <c r="R16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="S16">
+        <v>3000400001</v>
+      </c>
+      <c r="T16" s="2">
+        <v>30004000010000</v>
+      </c>
+      <c r="U16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>11000100001</v>
       </c>
       <c r="C17">
         <v>11</v>
       </c>
-      <c r="E17" t="s">
-        <v>40</v>
+      <c r="D17">
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="K17">
+        <v>46</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17">
         <v>0.2</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>0.1</v>
       </c>
-      <c r="R17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="S17">
+        <v>11000100001</v>
+      </c>
+      <c r="T17" s="2">
+        <v>110001000010000</v>
+      </c>
+      <c r="U17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>11000200001</v>
       </c>
       <c r="C18">
         <v>11</v>
       </c>
-      <c r="E18" t="s">
-        <v>40</v>
+      <c r="D18">
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="K18">
+        <v>46</v>
+      </c>
+      <c r="G18" t="s">
+        <v>76</v>
+      </c>
+      <c r="L18">
         <v>0.2</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>0.1</v>
       </c>
-      <c r="R18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="S18">
+        <v>11000200001</v>
+      </c>
+      <c r="T18" s="2">
+        <v>110002000010000</v>
+      </c>
+      <c r="U18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>11000300001</v>
       </c>
       <c r="C19">
         <v>11</v>
       </c>
-      <c r="E19" t="s">
-        <v>40</v>
+      <c r="D19">
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19">
+        <v>46</v>
+      </c>
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="L19">
         <v>0.2</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>0.1</v>
       </c>
-      <c r="R19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" ht="13" customHeight="1" spans="1:18">
+      <c r="S19">
+        <v>11000300001</v>
+      </c>
+      <c r="T19" s="2">
+        <v>110003000010000</v>
+      </c>
+      <c r="U19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" ht="13" customHeight="1" spans="1:21">
       <c r="A20">
         <v>12000100001</v>
       </c>
       <c r="C20">
         <v>12</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20">
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20">
         <v>0.05</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.01</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>5</v>
       </c>
-      <c r="R20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="R20">
+        <v>500001</v>
+      </c>
+      <c r="S20">
+        <v>12000100001</v>
+      </c>
+      <c r="T20" s="2">
+        <v>120001000010000</v>
+      </c>
+      <c r="U20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:21">
       <c r="A21">
         <v>12000200001</v>
       </c>
       <c r="C21">
         <v>12</v>
       </c>
-      <c r="P21">
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q21">
         <v>5</v>
       </c>
-      <c r="R21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="R21">
+        <v>500002</v>
+      </c>
+      <c r="S21">
+        <v>12000200001</v>
+      </c>
+      <c r="T21" s="2">
+        <v>120002000010000</v>
+      </c>
+      <c r="U21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:21">
       <c r="A22">
         <v>12000300001</v>
       </c>
       <c r="C22">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>12000300001</v>
+      </c>
+      <c r="T22" s="2">
+        <v>120003000010000</v>
+      </c>
+      <c r="U22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:21">
       <c r="A23">
         <v>13000100001</v>
       </c>
       <c r="C23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="S23">
+        <v>13000100001</v>
+      </c>
+      <c r="T23" s="2">
+        <v>130001000010000</v>
+      </c>
+      <c r="U23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24">
         <v>13000200001</v>
       </c>
       <c r="C24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="S24">
+        <v>13000200001</v>
+      </c>
+      <c r="T24" s="2">
+        <v>130002000010000</v>
+      </c>
+      <c r="U24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:21">
       <c r="A25">
         <v>13000300001</v>
       </c>
       <c r="C25">
         <v>13</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25">
+        <v>13000300001</v>
+      </c>
+      <c r="T25" s="2">
+        <v>130003000010000</v>
+      </c>
+      <c r="U25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:21">
+      <c r="A26">
+        <v>13000400001</v>
+      </c>
+      <c r="C26">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S26">
+        <v>13000400001</v>
+      </c>
+      <c r="T26" s="2">
+        <v>130004000010000</v>
+      </c>
+      <c r="U26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:21">
+      <c r="A27">
+        <v>13000500001</v>
+      </c>
+      <c r="C27">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S27">
+        <v>13000500001</v>
+      </c>
+      <c r="T27" s="2">
+        <v>130005000010000</v>
+      </c>
+      <c r="U27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:21">
+      <c r="A28">
+        <v>13000600001</v>
+      </c>
+      <c r="C28">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="S28">
+        <v>13000600001</v>
+      </c>
+      <c r="T28" s="2">
+        <v>130006000010000</v>
+      </c>
+      <c r="U28" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>
@@ -1904,7 +2252,7 @@
     <row r="79" ht="12" customHeight="1"/>
     <row r="80" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:AB88">
+  <sortState ref="A4:AD88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>每隔多少秒再攻击一次</t>
+  </si>
+  <si>
+    <t>BuffEntityPeriodicPickupCrystal</t>
   </si>
   <si>
     <t>主动拾取附近魔晶</t>
@@ -313,7 +316,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +327,40 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="8"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -805,153 +842,171 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1305,9 +1360,9 @@
   <dimension ref="A1:U80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E13" sqref="E13"/>
+      <selection pane="topRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1536,7 +1591,7 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G4" t="s">
@@ -1554,7 +1609,7 @@
       <c r="S4">
         <v>1000100001</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="3">
         <v>10001000010000</v>
       </c>
       <c r="U4" t="s">
@@ -1571,7 +1626,7 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G5" t="s">
@@ -1589,7 +1644,7 @@
       <c r="S5">
         <v>1000200001</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="3">
         <v>10002000010000</v>
       </c>
       <c r="U5" t="s">
@@ -1606,13 +1661,13 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>52</v>
       </c>
       <c r="S6">
         <v>1000300001</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="3">
         <v>10003000010000</v>
       </c>
       <c r="U6" t="s">
@@ -1629,7 +1684,7 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>52</v>
       </c>
       <c r="H7" t="s">
@@ -1647,7 +1702,7 @@
       <c r="S7">
         <v>1000400001</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="3">
         <v>10004000010000</v>
       </c>
       <c r="U7" t="s">
@@ -1664,13 +1719,13 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>52</v>
       </c>
       <c r="S8">
         <v>1000500001</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="3">
         <v>10005000010000</v>
       </c>
       <c r="U8" t="s">
@@ -1687,7 +1742,7 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G9" t="s">
@@ -1699,7 +1754,7 @@
       <c r="S9">
         <v>2000100001</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="3">
         <v>20001000010000</v>
       </c>
       <c r="U9" t="s">
@@ -1716,7 +1771,7 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G10" t="s">
@@ -1728,7 +1783,7 @@
       <c r="S10">
         <v>2000200001</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="3">
         <v>20002000010000</v>
       </c>
       <c r="U10" t="s">
@@ -1745,13 +1800,13 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L11">
@@ -1760,7 +1815,7 @@
       <c r="S11">
         <v>2000300001</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="3">
         <v>20003000010000</v>
       </c>
       <c r="U11" t="s">
@@ -1777,13 +1832,13 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="6" t="s">
         <v>62</v>
       </c>
       <c r="L12">
@@ -1792,7 +1847,7 @@
       <c r="S12">
         <v>2000400001</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T12" s="3">
         <v>20004000010000</v>
       </c>
       <c r="U12" t="s">
@@ -1809,13 +1864,13 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>66</v>
       </c>
       <c r="S13">
         <v>3000100001</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T13" s="3">
         <v>30001000010000</v>
       </c>
       <c r="U13" t="s">
@@ -1832,7 +1887,7 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="G14" t="s">
@@ -1844,7 +1899,7 @@
       <c r="S14">
         <v>3000200001</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T14" s="3">
         <v>30002000010000</v>
       </c>
       <c r="U14" t="s">
@@ -1864,7 +1919,7 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G15" t="s">
@@ -1876,7 +1931,7 @@
       <c r="S15">
         <v>3000300001</v>
       </c>
-      <c r="T15" s="2">
+      <c r="T15" s="3">
         <v>30003000010000</v>
       </c>
       <c r="U15" t="s">
@@ -1893,7 +1948,7 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G16" t="s">
@@ -1905,7 +1960,7 @@
       <c r="S16">
         <v>3000400001</v>
       </c>
-      <c r="T16" s="2">
+      <c r="T16" s="3">
         <v>30004000010000</v>
       </c>
       <c r="U16" t="s">
@@ -1922,7 +1977,7 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G17" t="s">
@@ -1937,7 +1992,7 @@
       <c r="S17">
         <v>11000100001</v>
       </c>
-      <c r="T17" s="2">
+      <c r="T17" s="3">
         <v>110001000010000</v>
       </c>
       <c r="U17" t="s">
@@ -1954,7 +2009,7 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G18" t="s">
@@ -1969,7 +2024,7 @@
       <c r="S18">
         <v>11000200001</v>
       </c>
-      <c r="T18" s="2">
+      <c r="T18" s="3">
         <v>110002000010000</v>
       </c>
       <c r="U18" t="s">
@@ -1986,7 +2041,7 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="8" t="s">
         <v>46</v>
       </c>
       <c r="G19" t="s">
@@ -2001,7 +2056,7 @@
       <c r="S19">
         <v>11000300001</v>
       </c>
-      <c r="T19" s="2">
+      <c r="T19" s="3">
         <v>110003000010000</v>
       </c>
       <c r="U19" t="s">
@@ -2018,7 +2073,7 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="9" t="s">
         <v>52</v>
       </c>
       <c r="L20">
@@ -2036,7 +2091,7 @@
       <c r="S20">
         <v>12000100001</v>
       </c>
-      <c r="T20" s="2">
+      <c r="T20" s="3">
         <v>120001000010000</v>
       </c>
       <c r="U20" t="s">
@@ -2053,7 +2108,7 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="9" t="s">
         <v>80</v>
       </c>
       <c r="Q21">
@@ -2065,7 +2120,7 @@
       <c r="S21">
         <v>12000200001</v>
       </c>
-      <c r="T21" s="2">
+      <c r="T21" s="3">
         <v>120002000010000</v>
       </c>
       <c r="U21" t="s">
@@ -2082,7 +2137,7 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="9" t="s">
         <v>82</v>
       </c>
       <c r="Q22">
@@ -2091,7 +2146,7 @@
       <c r="S22">
         <v>12000300001</v>
       </c>
-      <c r="T22" s="2">
+      <c r="T22" s="3">
         <v>120003000010000</v>
       </c>
       <c r="U22" t="s">
@@ -2108,15 +2163,26 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
       <c r="S23">
         <v>13000100001</v>
       </c>
-      <c r="T23" s="2">
+      <c r="T23" s="3">
         <v>130001000010000</v>
       </c>
       <c r="U23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2132,11 +2198,11 @@
       <c r="S24">
         <v>13000200001</v>
       </c>
-      <c r="T24" s="2">
+      <c r="T24" s="3">
         <v>130002000010000</v>
       </c>
       <c r="U24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:21">
@@ -2149,17 +2215,17 @@
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>86</v>
+      <c r="G25" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="S25">
         <v>13000300001</v>
       </c>
-      <c r="T25" s="2">
+      <c r="T25" s="3">
         <v>130003000010000</v>
       </c>
       <c r="U25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" ht="14.25" spans="1:21">
@@ -2172,17 +2238,17 @@
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>86</v>
+      <c r="G26" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="S26">
         <v>13000400001</v>
       </c>
-      <c r="T26" s="2">
+      <c r="T26" s="3">
         <v>130004000010000</v>
       </c>
       <c r="U26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" ht="14.25" spans="1:21">
@@ -2195,17 +2261,17 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>86</v>
+      <c r="G27" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="S27">
         <v>13000500001</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T27" s="3">
         <v>130005000010000</v>
       </c>
       <c r="U27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" ht="14.25" spans="1:21">
@@ -2218,17 +2284,17 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>86</v>
+      <c r="G28" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="S28">
         <v>13000600001</v>
       </c>
-      <c r="T28" s="2">
+      <c r="T28" s="3">
         <v>130006000010000</v>
       </c>
       <c r="U28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_buff_info[buff信息].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -47,6 +47,9 @@
     <t>class_entity</t>
   </si>
   <si>
+    <t>class_entity_events</t>
+  </si>
+  <si>
     <t>class_entity_data</t>
   </si>
   <si>
@@ -122,6 +125,9 @@
     <t>引用实例</t>
   </si>
   <si>
+    <t>实例事件</t>
+  </si>
+  <si>
     <t>实例数据</t>
   </si>
   <si>
@@ -149,7 +155,7 @@
     <t>触发几率(最小值)</t>
   </si>
   <si>
-    <t>触发次数</t>
+    <t>触发次数(0为触发一次 负数永久触发)</t>
   </si>
   <si>
     <t>触发时间</t>
@@ -185,7 +191,7 @@
     <t>减速-粘液</t>
   </si>
   <si>
-    <t>BuffEntityPeriodicHPChange</t>
+    <t>BuffEntityBaseHPChange</t>
   </si>
   <si>
     <t>流血</t>
@@ -254,40 +260,40 @@
     <t>时光沙漏-所有魔物放置CD减少10%</t>
   </si>
   <si>
-    <t>加生命百分比</t>
+    <t>生命增加{Percentage}%</t>
   </si>
   <si>
     <t>DR</t>
   </si>
   <si>
-    <t>加护甲百分比</t>
-  </si>
-  <si>
-    <t>加攻击力百分比</t>
-  </si>
-  <si>
-    <t>每隔多少秒恢复HP一次</t>
-  </si>
-  <si>
-    <t>BuffEntityPeriodicDRChange</t>
-  </si>
-  <si>
-    <t>每隔多少秒恢复DR一次</t>
+    <t>护甲增加{Percentage}%</t>
+  </si>
+  <si>
+    <t>攻击力增加{Percentage}%</t>
+  </si>
+  <si>
+    <t>每隔{Time_S}秒恢复{Percentage}%生命</t>
+  </si>
+  <si>
+    <t>BuffEntityBaseDRChange</t>
+  </si>
+  <si>
+    <t>每隔{Time_S}秒恢复{Percentage}%护甲</t>
   </si>
   <si>
     <t>BuffEntityPeriodicAttackAgain</t>
   </si>
   <si>
-    <t>每隔多少秒再攻击一次</t>
+    <t>每隔{Time_S}秒再攻击一次</t>
   </si>
   <si>
     <t>BuffEntityPeriodicPickupCrystal</t>
   </si>
   <si>
-    <t>主动拾取附近魔晶</t>
-  </si>
-  <si>
-    <t>拾取的魔晶加倍</t>
+    <t>每隔{Time_S}秒自动拾取附近魔晶</t>
+  </si>
+  <si>
+    <t>BuffEntityConditionalDeadRebirth</t>
   </si>
   <si>
     <t>GameFightLogic_CreatureDeadEnd</t>
@@ -296,10 +302,22 @@
     <t>死亡后重生</t>
   </si>
   <si>
+    <t>BuffEntityConditionalDeadAttack</t>
+  </si>
+  <si>
     <t>死亡后爆炸</t>
   </si>
   <si>
-    <t>死亡后给友军加血</t>
+    <t>BuffEntityConditionalDeadAreaHPChange</t>
+  </si>
+  <si>
+    <t>死亡后恢复附近友军生命，恢复量:自身生命上限的{Percentage}%</t>
+  </si>
+  <si>
+    <t>BuffEntityConditionalDeadAreaDRChange</t>
+  </si>
+  <si>
+    <t>死亡后恢复附近友军护甲，恢复量:自身护甲上限的{Percentage}%</t>
   </si>
   <si>
     <t>死亡后生成魔晶</t>
@@ -340,6 +358,12 @@
     </font>
     <font>
       <sz val="10.5"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="8"/>
       <name val="Consolas"/>
       <charset val="134"/>
@@ -364,12 +388,6 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF4EC9B0"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -972,7 +990,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -988,23 +1006,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1357,12 +1372,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="L25" sqref="L25"/>
+      <selection pane="topRight" activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1372,21 +1387,22 @@
     <col min="3" max="4" width="21.25" customWidth="1"/>
     <col min="5" max="5" width="51.875" customWidth="1"/>
     <col min="6" max="6" width="41.5" customWidth="1"/>
-    <col min="7" max="7" width="42.625" customWidth="1"/>
-    <col min="8" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="20.375" customWidth="1"/>
-    <col min="13" max="13" width="24.875" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="21.375" customWidth="1"/>
-    <col min="16" max="18" width="16" customWidth="1"/>
-    <col min="19" max="19" width="17.125" customWidth="1"/>
-    <col min="20" max="20" width="28.625" customWidth="1"/>
-    <col min="21" max="21" width="42.875" customWidth="1"/>
+    <col min="7" max="8" width="42.625" customWidth="1"/>
+    <col min="9" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="14.875" customWidth="1"/>
+    <col min="12" max="12" width="19.375" customWidth="1"/>
+    <col min="13" max="13" width="20.375" customWidth="1"/>
+    <col min="14" max="14" width="24.875" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="16" max="16" width="21.375" customWidth="1"/>
+    <col min="17" max="17" width="36.125" customWidth="1"/>
+    <col min="18" max="19" width="16" customWidth="1"/>
+    <col min="20" max="20" width="17.125" customWidth="1"/>
+    <col min="21" max="21" width="28.625" customWidth="1"/>
+    <col min="22" max="22" width="61.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1417,22 +1433,22 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
@@ -1450,138 +1466,147 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" t="s">
         <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
         <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="U2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="V2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="K3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
+      <c r="O3" t="s">
         <v>40</v>
       </c>
+      <c r="P3" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="Q3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>1000100001</v>
       </c>
@@ -1592,31 +1617,32 @@
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G4" s="2"/>
       <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4">
         <v>-0.5</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>10</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>1000100001</v>
       </c>
-      <c r="T4" s="3">
+      <c r="U4" s="3">
         <v>10001000010000</v>
       </c>
-      <c r="U4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="V4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>1000200001</v>
       </c>
@@ -1627,31 +1653,32 @@
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G5" s="2"/>
       <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5">
         <v>-0.2</v>
       </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="S5">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>1000200001</v>
       </c>
-      <c r="T5" s="3">
+      <c r="U5" s="3">
         <v>10002000010000</v>
       </c>
-      <c r="U5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" spans="1:21">
+      <c r="V5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:22">
       <c r="A6">
         <v>1000300001</v>
       </c>
@@ -1662,19 +1689,20 @@
         <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S6">
+        <v>54</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="T6">
         <v>1000300001</v>
       </c>
-      <c r="T6" s="3">
+      <c r="U6" s="3">
         <v>10003000010000</v>
       </c>
-      <c r="U6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:21">
+      <c r="V6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:22">
       <c r="A7">
         <v>1000400001</v>
       </c>
@@ -1685,31 +1713,32 @@
         <v>1</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" t="s">
         <v>54</v>
       </c>
-      <c r="J7">
+      <c r="G7" s="5"/>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7">
         <v>-100</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1000400001</v>
       </c>
-      <c r="T7" s="3">
+      <c r="U7" s="3">
         <v>10004000010000</v>
       </c>
-      <c r="U7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:21">
+      <c r="V7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" spans="1:22">
       <c r="A8">
         <v>1000500001</v>
       </c>
@@ -1720,19 +1749,20 @@
         <v>1</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8">
+        <v>54</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="T8">
         <v>1000500001</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10005000010000</v>
       </c>
-      <c r="U8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>2000100001</v>
       </c>
@@ -1742,26 +1772,27 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9">
+      <c r="F9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9">
         <v>0.5</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>2000100001</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>20001000010000</v>
       </c>
-      <c r="U9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="V9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>2000200001</v>
       </c>
@@ -1771,26 +1802,27 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10">
+      <c r="F10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10">
         <v>0.5</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>2000200001</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>20002000010000</v>
       </c>
-      <c r="U10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="V10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>2000300001</v>
       </c>
@@ -1800,29 +1832,30 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11">
+      <c r="F11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M11">
         <v>0.5</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>2000300001</v>
       </c>
-      <c r="T11" s="3">
+      <c r="U11" s="3">
         <v>20003000010000</v>
       </c>
-      <c r="U11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="V11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>2000400001</v>
       </c>
@@ -1832,29 +1865,30 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12">
+      <c r="M12">
         <v>-0.5</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2000400001</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>20004000010000</v>
       </c>
-      <c r="U12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>3000100001</v>
       </c>
@@ -1864,20 +1898,21 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="S13">
+      <c r="F13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="T13">
         <v>3000100001</v>
       </c>
-      <c r="T13" s="3">
+      <c r="U13" s="3">
         <v>30001000010000</v>
       </c>
-      <c r="U13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="V13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>3000200001</v>
       </c>
@@ -1887,26 +1922,26 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
+      <c r="F14" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N14">
+        <v>71</v>
+      </c>
+      <c r="O14">
         <v>0.1</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3000200001</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>30002000010000</v>
       </c>
-      <c r="U14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="V14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>3000300001</v>
       </c>
@@ -1919,26 +1954,27 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" t="s">
-        <v>71</v>
-      </c>
-      <c r="L15">
+      <c r="F15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15">
         <v>0.1</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3000300001</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>30003000010000</v>
       </c>
-      <c r="U15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="V15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>3000400001</v>
       </c>
@@ -1948,26 +1984,27 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16">
+      <c r="F16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16">
         <v>-0.1</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>3000400001</v>
       </c>
-      <c r="T16" s="3">
+      <c r="U16" s="3">
         <v>30004000010000</v>
       </c>
-      <c r="U16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="V16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>11000100001</v>
       </c>
@@ -1977,29 +2014,30 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
-      </c>
-      <c r="L17">
+      <c r="F17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" t="s">
+        <v>73</v>
+      </c>
+      <c r="M17">
         <v>0.2</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.1</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>11000100001</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>110001000010000</v>
       </c>
-      <c r="U17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="V17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>11000200001</v>
       </c>
@@ -2009,29 +2047,30 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" t="s">
-        <v>76</v>
-      </c>
-      <c r="L18">
+      <c r="F18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18">
         <v>0.2</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.1</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>11000200001</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>110002000010000</v>
       </c>
-      <c r="U18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="V18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>11000300001</v>
       </c>
@@ -2041,29 +2080,30 @@
       <c r="D19">
         <v>2</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>61</v>
-      </c>
-      <c r="L19">
+      <c r="F19" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" s="9"/>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19">
         <v>0.2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.1</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>11000300001</v>
       </c>
-      <c r="T19" s="3">
+      <c r="U19" s="3">
         <v>110003000010000</v>
       </c>
-      <c r="U19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" ht="13" customHeight="1" spans="1:21">
+      <c r="V19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" ht="13" customHeight="1" spans="1:22">
       <c r="A20">
         <v>12000100001</v>
       </c>
@@ -2073,32 +2113,36 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20">
+      <c r="F20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="M20">
         <v>0.05</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.01</v>
       </c>
       <c r="Q20">
+        <v>-1</v>
+      </c>
+      <c r="R20">
         <v>5</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>500001</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>12000100001</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>120001000010000</v>
       </c>
-      <c r="U20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="21" ht="14.25" spans="1:21">
+      <c r="V20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" spans="1:22">
       <c r="A21">
         <v>12000200001</v>
       </c>
@@ -2108,26 +2152,36 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>80</v>
+      <c r="F21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="M21">
+        <v>0.05</v>
+      </c>
+      <c r="N21">
+        <v>0.01</v>
       </c>
       <c r="Q21">
+        <v>-1</v>
+      </c>
+      <c r="R21">
         <v>5</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>500002</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>12000200001</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>120002000010000</v>
       </c>
-      <c r="U21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" ht="14.25" spans="1:21">
+      <c r="V21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" spans="1:22">
       <c r="A22">
         <v>12000300001</v>
       </c>
@@ -2137,23 +2191,27 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>82</v>
-      </c>
+      <c r="F22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="4"/>
       <c r="Q22">
+        <v>-1</v>
+      </c>
+      <c r="R22">
         <v>5</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>12000300001</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>120003000010000</v>
       </c>
-      <c r="U22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:21">
+      <c r="V22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:22">
       <c r="A23">
         <v>13000100001</v>
       </c>
@@ -2163,31 +2221,35 @@
       <c r="D23">
         <v>4</v>
       </c>
-      <c r="F23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
+      <c r="F23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="K23">
         <v>1</v>
       </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
       <c r="Q23">
+        <v>-1</v>
+      </c>
+      <c r="R23">
         <v>3</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>13000100001</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>130001000010000</v>
       </c>
-      <c r="U23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:22">
       <c r="A24">
-        <v>13000200001</v>
+        <v>13000300001</v>
       </c>
       <c r="C24">
         <v>13</v>
@@ -2195,19 +2257,29 @@
       <c r="D24">
         <v>4</v>
       </c>
+      <c r="F24" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" s="10"/>
       <c r="S24">
-        <v>13000200001</v>
-      </c>
-      <c r="T24" s="3">
-        <v>130002000010000</v>
-      </c>
-      <c r="U24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:21">
+        <v>500001</v>
+      </c>
+      <c r="T24">
+        <v>13000300001</v>
+      </c>
+      <c r="U24" s="3">
+        <v>130003000010000</v>
+      </c>
+      <c r="V24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:22">
       <c r="A25">
-        <v>13000300001</v>
+        <v>13000400001</v>
       </c>
       <c r="C25">
         <v>13</v>
@@ -2215,22 +2287,34 @@
       <c r="D25">
         <v>4</v>
       </c>
-      <c r="G25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S25">
-        <v>13000300001</v>
-      </c>
-      <c r="T25" s="3">
-        <v>130003000010000</v>
-      </c>
-      <c r="U25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:21">
+      <c r="F25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25">
+        <v>300001</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>13000400001</v>
+      </c>
+      <c r="U25" s="3">
+        <v>130004000010000</v>
+      </c>
+      <c r="V25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:22">
       <c r="A26">
-        <v>13000400001</v>
+        <v>13000500001</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -2238,22 +2322,34 @@
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="G26" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S26">
-        <v>13000400001</v>
-      </c>
-      <c r="T26" s="3">
-        <v>130004000010000</v>
-      </c>
-      <c r="U26" t="s">
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:21">
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.05</v>
+      </c>
+      <c r="N26">
+        <v>0.01</v>
+      </c>
+      <c r="T26">
+        <v>13000500001</v>
+      </c>
+      <c r="U26" s="3">
+        <v>130005000010000</v>
+      </c>
+      <c r="V26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:22">
       <c r="A27">
-        <v>13000500001</v>
+        <v>13000600001</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -2261,22 +2357,34 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="G27" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S27">
-        <v>13000500001</v>
-      </c>
-      <c r="T27" s="3">
-        <v>130005000010000</v>
-      </c>
-      <c r="U27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:21">
+      <c r="F27" t="s">
+        <v>95</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.05</v>
+      </c>
+      <c r="N27">
+        <v>0.01</v>
+      </c>
+      <c r="T27">
+        <v>13000600001</v>
+      </c>
+      <c r="U27" s="3">
+        <v>130006000010000</v>
+      </c>
+      <c r="V27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="14.25" spans="1:22">
       <c r="A28">
-        <v>13000600001</v>
+        <v>13000700001</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -2284,19 +2392,20 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="S28">
-        <v>13000600001</v>
-      </c>
-      <c r="T28" s="3">
-        <v>130006000010000</v>
-      </c>
-      <c r="U28" t="s">
-        <v>91</v>
-      </c>
-    </row>
+      <c r="G28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="T28">
+        <v>13000700001</v>
+      </c>
+      <c r="U28" s="3">
+        <v>130007000010000</v>
+      </c>
+      <c r="V28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" ht="15" customHeight="1"/>
     <row r="30" ht="15" customHeight="1"/>
     <row r="31" ht="15" customHeight="1"/>
     <row r="32" ht="15" customHeight="1"/>
@@ -2307,7 +2416,7 @@
     <row r="37" ht="15" customHeight="1"/>
     <row r="38" ht="15" customHeight="1"/>
     <row r="39" ht="15" customHeight="1"/>
-    <row r="40" ht="15" customHeight="1"/>
+    <row r="71" ht="12" customHeight="1"/>
     <row r="72" ht="12" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
     <row r="74" ht="12" customHeight="1"/>
@@ -2316,9 +2425,8 @@
     <row r="77" ht="12" customHeight="1"/>
     <row r="78" ht="12" customHeight="1"/>
     <row r="79" ht="12" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
   </sheetData>
-  <sortState ref="A4:AD88">
+  <sortState ref="A4:AE88">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
